--- a/biology/Zoologie/Euphilotes_battoides/Euphilotes_battoides.xlsx
+++ b/biology/Zoologie/Euphilotes_battoides/Euphilotes_battoides.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphilotes battoides est une espèce de papillons de la famille des Lycaenidae, de la sous-famille des Polyommatinae et du genre Euphilotes.
 </t>
@@ -511,11 +523,13 @@
           <t>Dénominations</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphilotes battoides a été décrit par Hans Hermann Behr en 1867.
-Synonyme : Rusticus battoides ; Dyar, 1903[2].
-Des travaux comme ceux de Pratts et Emmel en 1995 ont élevé Euphilotes battoides ancilla, jusqu'alors considérée comme une sous-espèce, au rang d'espèce sous le taxon Euphilotes ancilla[3]
+Synonyme : Rusticus battoides ; Dyar, 1903.
+Des travaux comme ceux de Pratts et Emmel en 1995 ont élevé Euphilotes battoides ancilla, jusqu'alors considérée comme une sous-espèce, au rang d'espèce sous le taxon Euphilotes ancilla
 </t>
         </is>
       </c>
@@ -544,9 +558,11 @@
           <t>Noms vernaculaires</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euphilotes battoides se nomme Square-spotted Blue ou Buckwheat Blue en anglais[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphilotes battoides se nomme Square-spotted Blue ou Buckwheat Blue en anglais.
 </t>
         </is>
       </c>
@@ -575,9 +591,11 @@
           <t>Liste des sous-espèces</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Selon Funet[2] (23 janvier 2021) :
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Selon Funet (23 janvier 2021) :
 sous-espèce Euphilotes battoides allyni (Shields, 1975)- Californie
 sous-espèce Euphilotes battoides anasazi Scott, 1998 - Nouveau-Mexique
 sous-espèce Euphilotes battoides argocyanea Pratt &amp; Emmel, 1998 - Californie
@@ -613,12 +631,12 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">Euphilotes battoides est un très petit papillon d'une envergure de 16 à 17 mm, qui présente et une variabilité et un dimorphisme sexuel : le dessus du mâle est bleu violet à bordure foncée avec ou sans ornementation orange, celui de la femelle est marron souvent orné d'une bande submarginale orange partielle aux postérieures.
-Le revers est bleu-gris, orné d'une ligne submarginal de taches et d'une ligne de taches orange aux postérieures[4],[5],
-Chenilles
-Les chenilles sont de couleur variable jaunâtre, blanchâtre, roses ou marron suivant leur stade[3].
+Le revers est bleu-gris, orné d'une ligne submarginal de taches et d'une ligne de taches orange aux postérieures
 </t>
         </is>
       </c>
@@ -644,19 +662,19 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Biologie</t>
+          <t>Description</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Les chenilles sont soignées par des fourmis[3].
-Période de vol et hivernation
-Il vole en une génération de mi-avril à août suivant sa résidence et son altitude[4].
-Il hiverne au stade nymphal[4].
-Plantes hôtes
-Les plantes hôtes de sa chenille sont des Eriogonum qui peuvent varier selon les sous-espèces[2] :
-pour Euphilotes battoides battoides, Eriogonum incarnum, Eriogonum lobii var. lobii et Eriogonum polypodum ;
-pour Euphilotes battoides allyni, Eriogonum cinereum, Eriogonum fasciculatum et Eriogonum parvifolium.</t>
+          <t>Chenilles</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont de couleur variable jaunâtre, blanchâtre, roses ou marron suivant leur stade.
+</t>
         </is>
       </c>
     </row>
@@ -681,18 +699,198 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les chenilles sont soignées par des fourmis.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Euphilotes_battoides</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphilotes_battoides</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une génération de mi-avril à août suivant sa résidence et son altitude.
+Il hiverne au stade nymphal.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Euphilotes_battoides</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphilotes_battoides</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Plantes hôtes</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>Les plantes hôtes de sa chenille sont des Eriogonum qui peuvent varier selon les sous-espèces :
+pour Euphilotes battoides battoides, Eriogonum incarnum, Eriogonum lobii var. lobii et Eriogonum polypodum ;
+pour Euphilotes battoides allyni, Eriogonum cinereum, Eriogonum fasciculatum et Eriogonum parvifolium.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Euphilotes_battoides</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphilotes_battoides</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Euphilotes ancilla est présent en Amérique du Nord :
+      <c r="F11" t="inlineStr"/>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>Euphilotes ancilla est présent en Amérique du Nord :
 au Canada, dans le Sud de la Colombie-Britannique ;
-dans l'Ouest des États-Unis, dans les montagnes Rocheuses, dans l'État de Washington, en Idaho, dans l'Ouest du Montana, en Oregon, dans le Nord de l'Utah, au Colorado, en Californie et au Nouveau-Mexique[5].
-Biotope
-Il réside dans les prairies, sur les dunes et sur les versants ensoleillés des montagnes Rocheuses[4].
-Protection
-Euphilotes battoides allyni est une espèce figurant dans la liste des espèces en danger (EN)[4].
+dans l'Ouest des États-Unis, dans les montagnes Rocheuses, dans l'État de Washington, en Idaho, dans l'Ouest du Montana, en Oregon, dans le Nord de l'Utah, au Colorado, en Californie et au Nouveau-Mexique.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Euphilotes_battoides</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphilotes_battoides</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il réside dans les prairies, sur les dunes et sur les versants ensoleillés des montagnes Rocheuses.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>Euphilotes_battoides</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Euphilotes_battoides</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr"/>
+      <c r="H13" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Euphilotes battoides allyni est une espèce figurant dans la liste des espèces en danger (EN).
 </t>
         </is>
       </c>
